--- a/ScreenOutput.xlsx
+++ b/ScreenOutput.xlsx
@@ -66,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,23 +472,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.78923876104326</v>
+        <v>28.9</v>
       </c>
       <c r="D2" t="n">
-        <v>282.1199951171875</v>
+        <v>132.91</v>
       </c>
       <c r="E2" t="n">
-        <v>17.51569176416464</v>
+        <v>26.24</v>
       </c>
       <c r="F2" t="n">
-        <v>217.4400024414062</v>
+        <v>108.43</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5499877929688</v>
+        <v>179.09</v>
       </c>
     </row>
     <row r="3">
@@ -429,23 +497,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>ALXN</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38.01323541155209</v>
+        <v>38.53</v>
       </c>
       <c r="D3" t="n">
-        <v>57.06000137329102</v>
+        <v>102.49</v>
       </c>
       <c r="E3" t="n">
-        <v>13.45764454029856</v>
+        <v>17.01</v>
       </c>
       <c r="F3" t="n">
-        <v>41.77059555053711</v>
+        <v>75.56</v>
       </c>
       <c r="G3" t="n">
-        <v>66.87648773193359</v>
+        <v>123.49</v>
       </c>
     </row>
     <row r="4">
@@ -454,23 +522,548 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33.34894116818803</v>
+        <v>37.37</v>
       </c>
       <c r="D4" t="n">
-        <v>33.40000152587891</v>
+        <v>158</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07663338602277</v>
+        <v>58.58</v>
       </c>
       <c r="F4" t="n">
-        <v>28.2088737487793</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>42.70131683349609</v>
+        <v>382.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>127.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>172.69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>130.06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>222.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38.68</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="E7" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>COTY</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="E8" t="n">
+        <v>70.59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>39.91</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83.94</v>
+      </c>
+      <c r="E9" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="F9" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>120.48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="D10" t="n">
+        <v>187.08</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="F10" t="n">
+        <v>124.93</v>
+      </c>
+      <c r="G10" t="n">
+        <v>229.58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EQR</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>37.47</v>
+      </c>
+      <c r="D11" t="n">
+        <v>53.63</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50.89</v>
+      </c>
+      <c r="G11" t="n">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="D12" t="n">
+        <v>29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="G12" t="n">
+        <v>51.78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FFIV</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>39.35</v>
+      </c>
+      <c r="D13" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>90.55</v>
+      </c>
+      <c r="G13" t="n">
+        <v>154.84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>53.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="D15" t="n">
+        <v>69.53</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="F15" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="G15" t="n">
+        <v>83.26000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="D16" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="F16" t="n">
+        <v>44.24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>67.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>32.86</v>
+      </c>
+      <c r="D17" t="n">
+        <v>150.29</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>105.26</v>
+      </c>
+      <c r="G17" t="n">
+        <v>169.13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LYB</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="D18" t="n">
+        <v>62.52</v>
+      </c>
+      <c r="E18" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>93.63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PKG</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="D19" t="n">
+        <v>96.12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75.61</v>
+      </c>
+      <c r="G19" t="n">
+        <v>111.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PRGO</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="D20" t="n">
+        <v>53.02</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>60.33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>34.77</v>
+      </c>
+      <c r="D21" t="n">
+        <v>56.68</v>
+      </c>
+      <c r="E21" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>97.37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="F22" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="G22" t="n">
+        <v>61.43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ULTA</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>192.99</v>
+      </c>
+      <c r="E23" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>128.52</v>
+      </c>
+      <c r="G23" t="n">
+        <v>353.04</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="D24" t="n">
+        <v>272</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F24" t="n">
+        <v>166.71</v>
+      </c>
+      <c r="G24" t="n">
+        <v>303.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>WRK</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="E25" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>42.84</v>
       </c>
     </row>
   </sheetData>
